--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-body-weight.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,10 +657,6 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:MesReasonForMeasurement</t>
@@ -1604,6 +1600,10 @@
   </si>
   <si>
     <t>Observation.dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding</t>
@@ -4758,7 +4758,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>122</v>
@@ -4784,13 +4784,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>82</v>
@@ -4812,13 +4812,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4933,16 +4933,16 @@
         <v>114</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4991,7 +4991,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5052,17 +5052,17 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5111,7 +5111,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5126,19 +5126,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5146,14 +5146,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5172,17 +5172,17 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5231,7 +5231,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5246,16 +5246,16 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5266,14 +5266,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5292,16 +5292,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5351,7 +5351,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5366,16 +5366,16 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5415,16 +5415,16 @@
         <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5449,11 +5449,11 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5471,7 +5471,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>93</v>
@@ -5486,19 +5486,19 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5532,19 +5532,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5572,16 +5572,16 @@
         <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5591,7 +5591,7 @@
         <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5615,10 +5615,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5626,13 +5626,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
@@ -5654,19 +5654,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5694,11 +5694,11 @@
         <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5739,10 +5739,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5868,10 +5868,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5988,10 +5988,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6017,16 +6017,16 @@
         <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6075,7 +6075,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6096,10 +6096,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6228,10 +6228,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6348,10 +6348,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6377,65 +6377,65 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6456,10 +6456,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6499,13 +6499,13 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6555,7 +6555,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6576,10 +6576,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6619,63 +6619,63 @@
         <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6696,10 +6696,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6739,14 +6739,14 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6795,7 +6795,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6816,10 +6816,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6856,19 +6856,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6917,7 +6917,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6938,10 +6938,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6981,16 +6981,16 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7039,7 +7039,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7060,10 +7060,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7074,14 +7074,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7100,19 +7100,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7140,11 +7140,11 @@
         <v>155</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>93</v>
@@ -7176,30 +7176,30 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7434,10 +7434,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7463,16 +7463,16 @@
         <v>151</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7509,7 +7509,7 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -7519,7 +7519,7 @@
         <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7540,10 +7540,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7554,13 +7554,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7585,16 +7585,16 @@
         <v>151</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7643,7 +7643,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7664,10 +7664,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7796,10 +7796,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7916,10 +7916,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7945,23 +7945,23 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8003,7 +8003,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8024,10 +8024,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8067,13 +8067,13 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8123,7 +8123,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8144,10 +8144,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8187,21 +8187,21 @@
         <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8243,7 +8243,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8264,10 +8264,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8307,14 +8307,14 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8363,7 +8363,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8384,10 +8384,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8398,10 +8398,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8424,19 +8424,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8485,7 +8485,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8506,10 +8506,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8520,10 +8520,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8549,16 +8549,16 @@
         <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8607,7 +8607,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8628,10 +8628,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8668,19 +8668,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8729,7 +8729,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8744,19 +8744,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8790,16 +8790,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8849,7 +8849,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8870,13 +8870,13 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8884,14 +8884,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8910,19 +8910,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8971,7 +8971,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8986,19 +8986,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -9006,14 +9006,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9032,19 +9032,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9093,7 +9093,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9102,25 +9102,25 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9157,13 +9157,13 @@
         <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9213,7 +9213,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9234,13 +9234,13 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9248,10 +9248,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9274,17 +9274,17 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9333,7 +9333,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9348,19 +9348,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9368,10 +9368,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9394,19 +9394,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9443,17 +9443,17 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9462,7 +9462,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9471,30 +9471,30 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>82</v>
@@ -9516,19 +9516,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9538,7 +9538,7 @@
         <v>82</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>82</v>
@@ -9577,7 +9577,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9586,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9595,27 +9595,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9730,10 +9730,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9850,10 +9850,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9876,19 +9876,19 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9937,7 +9937,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9958,10 +9958,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10001,65 +10001,65 @@
         <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" t="s" s="2">
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10080,10 +10080,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10094,10 +10094,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10123,14 +10123,14 @@
         <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10179,7 +10179,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10200,10 +10200,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10214,10 +10214,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10243,63 +10243,63 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10308,7 +10308,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10320,10 +10320,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10334,10 +10334,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10363,16 +10363,16 @@
         <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10397,31 +10397,31 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10442,10 +10442,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10456,10 +10456,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10482,19 +10482,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10522,11 +10522,11 @@
         <v>155</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10552,7 +10552,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10567,7 +10567,7 @@
         <v>196</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10578,10 +10578,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10696,10 +10696,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10790,7 +10790,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>122</v>
@@ -10845,16 +10845,16 @@
         <v>151</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10903,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10912,7 +10912,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10924,10 +10924,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11150,7 +11150,7 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>122</v>
@@ -11205,16 +11205,16 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11263,7 +11263,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11272,7 +11272,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11284,10 +11284,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11327,13 +11327,13 @@
         <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11383,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11392,7 +11392,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11404,10 +11404,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11447,16 +11447,16 @@
         <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>517</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11505,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11514,7 +11514,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11526,10 +11526,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11569,16 +11569,16 @@
         <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>517</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11627,7 +11627,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11636,7 +11636,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11648,10 +11648,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11688,19 +11688,19 @@
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11749,7 +11749,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11758,7 +11758,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11770,10 +11770,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11813,16 +11813,16 @@
         <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11871,7 +11871,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11880,7 +11880,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11892,10 +11892,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11932,7 +11932,7 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>523</v>
@@ -12174,7 +12174,7 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>541</v>
@@ -12294,7 +12294,7 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>551</v>
@@ -13026,7 +13026,7 @@
         <v>117</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13372,7 +13372,7 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>604</v>
@@ -13494,7 +13494,7 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>613</v>
@@ -14466,7 +14466,7 @@
         <v>117</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14576,7 +14576,7 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>653</v>
@@ -14616,10 +14616,10 @@
         <v>155</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14658,13 +14658,13 @@
         <v>657</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14710,7 +14710,7 @@
         <v>662</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14735,7 +14735,7 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="Y102" t="s" s="2">
         <v>663</v>
@@ -14780,16 +14780,16 @@
         <v>666</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="103" hidden="true">
@@ -14820,7 +14820,7 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>668</v>
@@ -14832,7 +14832,7 @@
         <v>670</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14860,10 +14860,10 @@
         <v>155</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14905,7 +14905,7 @@
         <v>196</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14942,7 +14942,7 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>523</v>
